--- a/Andrew-annotations/B_Q4_2012.xlsx
+++ b/Andrew-annotations/B_Q4_2012.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Desktop\School\College\Fall 2023\VIP 3602\SubjECTive-QA\Andrew-annotations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C757BDB-0C40-4EEF-A5F3-A300BA7CDA16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5A4E4C-2E01-4250-8872-CF9B7CB8EB27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -707,8 +707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49:J49"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="119" workbookViewId="0">
+      <selection activeCell="K53" sqref="K53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -762,22 +762,22 @@
         <v>13</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -794,22 +794,22 @@
         <v>15</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="244.8" x14ac:dyDescent="0.3">
@@ -838,7 +838,7 @@
         <v>2</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>2</v>
@@ -867,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>2</v>
@@ -934,7 +934,7 @@
         <v>2</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>2</v>
@@ -957,7 +957,7 @@
         <v>2</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -966,7 +966,7 @@
         <v>2</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>2</v>
@@ -998,7 +998,7 @@
         <v>2</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>2</v>
@@ -1085,19 +1085,19 @@
         <v>2</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
@@ -1117,16 +1117,16 @@
         <v>2</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>2</v>
@@ -1158,7 +1158,7 @@
         <v>2</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>2</v>
@@ -1181,16 +1181,16 @@
         <v>2</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>2</v>
@@ -1213,16 +1213,16 @@
         <v>2</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>2</v>
@@ -1254,7 +1254,7 @@
         <v>2</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>2</v>
@@ -1286,7 +1286,7 @@
         <v>2</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>2</v>
@@ -1318,7 +1318,7 @@
         <v>2</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>2</v>
@@ -1350,10 +1350,10 @@
         <v>2</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="72" x14ac:dyDescent="0.3">
@@ -1382,7 +1382,7 @@
         <v>2</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>2</v>
@@ -1414,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>2</v>
@@ -1478,7 +1478,7 @@
         <v>2</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>2</v>
@@ -1501,7 +1501,7 @@
         <v>2</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1510,7 +1510,7 @@
         <v>2</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>2</v>
@@ -1603,7 +1603,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28">
         <v>2</v>
@@ -1702,7 +1702,7 @@
         <v>2</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J31">
         <v>2</v>
@@ -1795,7 +1795,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34">
         <v>2</v>
@@ -1827,10 +1827,10 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J35">
         <v>2</v>
@@ -1859,10 +1859,10 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J36">
         <v>2</v>
@@ -1885,13 +1885,13 @@
         <v>2</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37">
         <v>2</v>
@@ -1914,7 +1914,7 @@
         <v>83</v>
       </c>
       <c r="E38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F38">
         <v>2</v>
@@ -1923,10 +1923,10 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J38">
         <v>2</v>
@@ -1955,10 +1955,10 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J39">
         <v>2</v>
@@ -1990,7 +1990,7 @@
         <v>2</v>
       </c>
       <c r="I40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J40">
         <v>2</v>
@@ -2054,7 +2054,7 @@
         <v>2</v>
       </c>
       <c r="I42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J42">
         <v>2</v>
@@ -2086,7 +2086,7 @@
         <v>2</v>
       </c>
       <c r="I43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J43">
         <v>2</v>
@@ -2109,16 +2109,16 @@
         <v>2</v>
       </c>
       <c r="F44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J44">
         <v>2</v>
@@ -2147,10 +2147,10 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J45">
         <v>2</v>
@@ -2182,7 +2182,7 @@
         <v>2</v>
       </c>
       <c r="I46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J46">
         <v>2</v>
@@ -2246,7 +2246,7 @@
         <v>2</v>
       </c>
       <c r="I48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J48">
         <v>2</v>
@@ -2275,10 +2275,10 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J49">
         <v>2</v>
